--- a/Backlog/Requisitos.xlsx
+++ b/Backlog/Requisitos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Documents\BandTEC\1 Semestre\Grupo 11\Grupo-11---1ADSB\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330A7EA-EC65-4F9A-AFDB-AF016F4C8D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9340C10-23C1-4AFB-BCBD-FF2C34E85363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="180" windowWidth="28560" windowHeight="12780" xr2:uid="{19BC8E0E-EF67-4C35-BCC2-605DB4369A84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19BC8E0E-EF67-4C35-BCC2-605DB4369A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Sensores de Temperatura</t>
   </si>
   <si>
-    <t>Haverá apenas um cadastro único para login(Pronto para o cliente utilizar)</t>
-  </si>
-  <si>
     <t>O software deve estar conectado a um banco de dados</t>
   </si>
   <si>
@@ -121,13 +118,34 @@
   </si>
   <si>
     <t>O site deve conter a logo e o nome da instituição</t>
+  </si>
+  <si>
+    <t>Tamanho</t>
+  </si>
+  <si>
+    <t>Pontuação</t>
+  </si>
+  <si>
+    <t>Pequeno</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Haverá apenas um cadastro único para login (Pronto para o cliente utilizar)</t>
+  </si>
+  <si>
+    <t>&gt;3,5,8,13,21&lt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +153,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +175,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,23 +196,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,329 +568,606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617A08C7-895F-4E06-BD51-85BD447111A2}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="88.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="93" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="E1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="2">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Backlog/Requisitos.xlsx
+++ b/Backlog/Requisitos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Documents\BandTEC\1 Semestre\Grupo 11\Grupo-11---1ADSB\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9340C10-23C1-4AFB-BCBD-FF2C34E85363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F1D1C6-6A33-4DA7-A26F-077ACA9FA247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19BC8E0E-EF67-4C35-BCC2-605DB4369A84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -120,25 +120,22 @@
     <t>O site deve conter a logo e o nome da instituição</t>
   </si>
   <si>
-    <t>Tamanho</t>
-  </si>
-  <si>
     <t>Pontuação</t>
   </si>
   <si>
-    <t>Pequeno</t>
-  </si>
-  <si>
-    <t>Grande</t>
-  </si>
-  <si>
-    <t>Médio</t>
-  </si>
-  <si>
     <t>Haverá apenas um cadastro único para login (Pronto para o cliente utilizar)</t>
   </si>
   <si>
     <t>&gt;3,5,8,13,21&lt;</t>
+  </si>
+  <si>
+    <t>Prioridade (agora na sprint 2)</t>
+  </si>
+  <si>
+    <t>O que foi na sprint 1, o que vai fazer na sprint 2 e na sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 1 nao precisa por pontuação, apenas pra segunda sporint</t>
   </si>
 </sst>
 </file>
@@ -177,18 +174,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,11 +208,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,13 +233,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -237,22 +240,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +587,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +596,7 @@
     <col min="2" max="2" width="93" customWidth="1"/>
     <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
@@ -598,11 +614,11 @@
       <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -618,462 +634,425 @@
       <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="7"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1102,6 +1081,9 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1109,6 +1091,9 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
@@ -1116,55 +1101,79 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="5"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="5"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Backlog/Requisitos.xlsx
+++ b/Backlog/Requisitos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Documents\BandTEC\1 Semestre\Grupo 11\Grupo-11---1ADSB\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madak\OneDrive\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F1D1C6-6A33-4DA7-A26F-077ACA9FA247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2FC7680-E174-4D80-8A35-6BFC307091FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19BC8E0E-EF67-4C35-BCC2-605DB4369A84}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -81,12 +72,6 @@
     <t>Deve conter um método de contato para o suporte técnico no painel</t>
   </si>
   <si>
-    <t>Deve haver uma página separada para exibir os gráficos</t>
-  </si>
-  <si>
-    <t>Utilização do Zendesk para modo de contato com a empresa</t>
-  </si>
-  <si>
     <t>Página deve ser responsivo</t>
   </si>
   <si>
@@ -126,23 +111,17 @@
     <t>Haverá apenas um cadastro único para login (Pronto para o cliente utilizar)</t>
   </si>
   <si>
-    <t>&gt;3,5,8,13,21&lt;</t>
-  </si>
-  <si>
-    <t>Prioridade (agora na sprint 2)</t>
-  </si>
-  <si>
-    <t>O que foi na sprint 1, o que vai fazer na sprint 2 e na sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 1 nao precisa por pontuação, apenas pra segunda sporint</t>
+    <t>Deve haver uma página para exibir os gráficos</t>
+  </si>
+  <si>
+    <t>Utilização do Zendesk/TomTicket para modo de contato com a empresa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +137,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,19 +162,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,23 +238,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +265,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,38 +279,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Célula de Verificação" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -288,7 +324,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -587,7 +623,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,463 +632,433 @@
     <col min="2" max="2" width="93" customWidth="1"/>
     <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15">
+      <c r="E19" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="18">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="18">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1081,9 +1087,6 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1091,9 +1094,6 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
@@ -1101,79 +1101,55 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
